--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8915.714809645629</v>
+        <v>-19067.45366245045</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24728256.75116413</v>
+        <v>24728256.75116414</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15140382.24954452</v>
+        <v>15140382.24954453</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2949163.539164917</v>
+        <v>2862805.264421657</v>
       </c>
     </row>
     <row r="11">
@@ -2087,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>235.0011416084342</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>65.76953573495733</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>175.7208089484498</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>127.6670518770817</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.09444105482045</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>65.7695357349571</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>147.0044828306516</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>273.0491018005796</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2651,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H27" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2731,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>143.5644059011828</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>10.18682693635475</v>
       </c>
     </row>
     <row r="29">
@@ -2798,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>286.3498453380691</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>77.62024710673808</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2886,7 +2888,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H30" t="n">
-        <v>52.84233230531351</v>
+        <v>52.84233230531348</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>80.51100496435825</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T30" t="n">
         <v>140.4611363452985</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>95.92094419210225</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>134.2848840064985</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3016,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>132.0484799728555</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>325.4681797692229</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3159,7 +3161,7 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T33" t="n">
-        <v>140.4611363452987</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U33" t="n">
         <v>182.9205141195597</v>
@@ -3202,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>34.79484432979901</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3272,7 +3274,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -3281,7 +3283,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>128.6552774352946</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>157.9450116862588</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T36" t="n">
-        <v>140.4611363452987</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U36" t="n">
         <v>182.9205141195597</v>
@@ -3424,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.83205621563052</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>65.7695357349571</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3503,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>96.58628302099044</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3554,10 +3556,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3566,7 +3568,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>44.73033015245812</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>73.58820034674432</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -3712,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3724,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>145.447218580434</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>212.1496567124882</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>147.0044828306517</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3879,7 +3881,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W42" t="n">
-        <v>194.5561633951151</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X42" t="n">
         <v>161.8425727710037</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>153.394657484954</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.74499657290055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>137.0099033214101</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="46">
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>68.83205621562998</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1125.388004637139</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1125.388004637139</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1125.388004637139</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>699.4110647849965</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>274.2868829743967</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>274.2868829743967</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>357.6855680512415</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>814.4714747539724</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1271.257381456703</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1728.043288159434</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1728.043288159434</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1728.043288159434</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1741.232328914477</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1741.232328914477</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1482.877419510889</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1125.388004637139</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1125.388004637139</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1125.388004637139</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1125.388004637139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>604.0354834922822</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>486.529580009787</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250719</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980091</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>184.3418574809132</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851708</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>36.9119924608267</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>44.35863542273854</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>316.0561247023296</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>316.0561247023296</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>316.0561247023296</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>772.8420314050604</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>772.8420314050604</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1229.627938107791</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1306.794406253903</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1763.580312956634</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1764.275375602591</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.39543990027</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1437.627243819906</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1232.654104959172</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1036.13272779239</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>872.6553815590526</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>732.9624929123449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.093114985063</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>948.1205518639796</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>784.8037789907503</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>618.5955731436038</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>446.7337989181643</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>280.4768292123964</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>136.6805607205508</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082674</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>263.4395936666639</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>594.4940582745251</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>985.6798532447758</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1363.171364120812</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1718.599492800575</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1718.599492800575</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1845.599623041337</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1779.165748561582</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1536.601852007387</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1310.259083697129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1440.262352996227</v>
+        <v>1043.871003296574</v>
       </c>
       <c r="C23" t="n">
-        <v>1440.262352996227</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="D23" t="n">
-        <v>1016.969732181227</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="E23" t="n">
-        <v>590.9927923290849</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8686105184851</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J23" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K23" t="n">
-        <v>814.4714747539724</v>
+        <v>357.6855680512415</v>
       </c>
       <c r="L23" t="n">
-        <v>814.4714747539724</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="M23" t="n">
-        <v>814.4714747539724</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N23" t="n">
-        <v>814.4714747539724</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O23" t="n">
-        <v>1271.257381456703</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P23" t="n">
         <v>1728.043288159434</v>
@@ -6026,13 +6028,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W23" t="n">
-        <v>1845.599623041337</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X23" t="n">
-        <v>1845.599623041337</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="Y23" t="n">
-        <v>1440.262352996227</v>
+        <v>1043.871003296574</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C24" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D24" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E24" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F24" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H24" t="n">
-        <v>36.91199246082694</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I24" t="n">
-        <v>36.91199246082694</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J24" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K24" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="L24" t="n">
-        <v>393.2225928484409</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="M24" t="n">
-        <v>850.0084995511718</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="N24" t="n">
-        <v>1306.794406253903</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O24" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="P24" t="n">
-        <v>1306.794406253903</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q24" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R24" t="n">
         <v>1845.599623041337</v>
@@ -6096,7 +6098,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U24" t="n">
         <v>1437.627243819906</v>
@@ -6105,13 +6107,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X24" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y24" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.91199246082674</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C25" t="n">
-        <v>36.91199246082674</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D25" t="n">
-        <v>36.91199246082674</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E25" t="n">
-        <v>36.91199246082674</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F25" t="n">
-        <v>36.91199246082674</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G25" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H25" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I25" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J25" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K25" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L25" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M25" t="n">
         <v>822.0807715636367</v>
@@ -6169,28 +6171,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R25" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S25" t="n">
-        <v>1628.425962247645</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T25" t="n">
-        <v>1385.086614473545</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U25" t="n">
-        <v>1104.902165973849</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V25" t="n">
-        <v>823.1906985818782</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W25" t="n">
-        <v>548.3382947543912</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X25" t="n">
-        <v>305.7743982001963</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y25" t="n">
-        <v>79.43162988993831</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>608.6939898724443</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="C26" t="n">
-        <v>460.2046132758265</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D26" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E26" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F26" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G26" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J26" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K26" t="n">
-        <v>856.3013579804531</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L26" t="n">
-        <v>856.3013579804531</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M26" t="n">
-        <v>856.3013579804531</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N26" t="n">
-        <v>856.3013579804531</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O26" t="n">
-        <v>1271.257381456703</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P26" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q26" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R26" t="n">
         <v>1845.599623041337</v>
@@ -6263,13 +6265,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W26" t="n">
-        <v>1845.599623041337</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X26" t="n">
-        <v>1433.879624209084</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y26" t="n">
-        <v>1028.542354163974</v>
+        <v>761.6811009734918</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C27" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D27" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E27" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I27" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J27" t="n">
-        <v>316.0561247023297</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K27" t="n">
-        <v>772.8420314050605</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L27" t="n">
-        <v>772.8420314050605</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M27" t="n">
-        <v>850.0084995511718</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="N27" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O27" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P27" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q27" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6333,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6342,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>685.0352107310263</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C28" t="n">
-        <v>685.0352107310263</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D28" t="n">
-        <v>685.0352107310263</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E28" t="n">
-        <v>518.8270048838798</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F28" t="n">
-        <v>346.9652306584402</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G28" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H28" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J28" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K28" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L28" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.806038155494</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N28" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O28" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P28" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q28" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R28" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S28" t="n">
-        <v>1628.425962247645</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T28" t="n">
-        <v>1385.086614473545</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U28" t="n">
-        <v>1104.902165973849</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="V28" t="n">
-        <v>959.8876145585132</v>
+        <v>1320.548807875265</v>
       </c>
       <c r="W28" t="n">
-        <v>685.0352107310263</v>
+        <v>1320.548807875265</v>
       </c>
       <c r="X28" t="n">
-        <v>685.0352107310263</v>
+        <v>1320.548807875265</v>
       </c>
       <c r="Y28" t="n">
-        <v>685.0352107310263</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>441.2510548713781</v>
+        <v>624.0226390050436</v>
       </c>
       <c r="C29" t="n">
-        <v>441.2510548713781</v>
+        <v>624.0226390050436</v>
       </c>
       <c r="D29" t="n">
-        <v>441.2510548713781</v>
+        <v>624.0226390050436</v>
       </c>
       <c r="E29" t="n">
-        <v>441.2510548713781</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F29" t="n">
-        <v>441.2510548713781</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G29" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J29" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K29" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="L29" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="M29" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N29" t="n">
-        <v>932.7282368344229</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O29" t="n">
-        <v>932.7282368344229</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P29" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q29" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S29" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T29" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U29" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V29" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W29" t="n">
-        <v>1344.840979214824</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X29" t="n">
-        <v>1266.436689208018</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="Y29" t="n">
-        <v>861.0994191629081</v>
+        <v>1043.871003296574</v>
       </c>
     </row>
     <row r="30">
@@ -6522,46 +6524,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E30" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F30" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I30" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J30" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K30" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L30" t="n">
-        <v>1222.18129514588</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M30" t="n">
-        <v>1222.18129514588</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N30" t="n">
-        <v>1306.794406253903</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="O30" t="n">
-        <v>1306.794406253903</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P30" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q30" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>532.6939408869704</v>
+        <v>305.7743982001958</v>
       </c>
       <c r="C31" t="n">
-        <v>532.6939408869704</v>
+        <v>133.8018350791118</v>
       </c>
       <c r="D31" t="n">
-        <v>369.3771680137411</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E31" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F31" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J31" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K31" t="n">
-        <v>76.20565529896515</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L31" t="n">
-        <v>430.8949765933859</v>
+        <v>303.8948463526237</v>
       </c>
       <c r="M31" t="n">
-        <v>822.0807715636367</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N31" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O31" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P31" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q31" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S31" t="n">
-        <v>1709.958326065076</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T31" t="n">
-        <v>1466.618978290976</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U31" t="n">
-        <v>1466.618978290976</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V31" t="n">
-        <v>1466.618978290976</v>
+        <v>823.1906985818778</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.766574463489</v>
+        <v>548.3382947543907</v>
       </c>
       <c r="X31" t="n">
-        <v>949.2026779092939</v>
+        <v>305.7743982001958</v>
       </c>
       <c r="Y31" t="n">
-        <v>722.859909599036</v>
+        <v>305.7743982001958</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J32" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K32" t="n">
-        <v>399.5154512777223</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L32" t="n">
-        <v>399.5154512777223</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M32" t="n">
-        <v>814.4714747539724</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="N32" t="n">
-        <v>1271.257381456703</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O32" t="n">
-        <v>1271.257381456703</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P32" t="n">
         <v>1728.043288159434</v>
@@ -6725,25 +6727,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S32" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T32" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U32" t="n">
-        <v>1607.850025911593</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V32" t="n">
-        <v>1250.360611037842</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="W32" t="n">
-        <v>853.9692613381892</v>
+        <v>1190.853363938096</v>
       </c>
       <c r="X32" t="n">
-        <v>442.2492625059364</v>
+        <v>862.0976267974665</v>
       </c>
       <c r="Y32" t="n">
-        <v>36.91199246082674</v>
+        <v>456.7603567523568</v>
       </c>
     </row>
     <row r="33">
@@ -6759,46 +6761,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D33" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E33" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F33" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I33" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J33" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K33" t="n">
-        <v>493.6978991635576</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L33" t="n">
-        <v>950.4838058662885</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="M33" t="n">
-        <v>1407.269712569019</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="N33" t="n">
-        <v>1407.269712569019</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="O33" t="n">
-        <v>1407.269712569019</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P33" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q33" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6832,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>911.6745856373313</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C34" t="n">
-        <v>739.7020225162473</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D34" t="n">
-        <v>576.385249643018</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1770437958716</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F34" t="n">
-        <v>238.315269570432</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G34" t="n">
-        <v>72.05829986466412</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J34" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K34" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L34" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M34" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N34" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O34" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P34" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q34" t="n">
         <v>1845.599623041337</v>
@@ -6895,13 +6897,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W34" t="n">
-        <v>1570.74721921385</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X34" t="n">
-        <v>1328.183322659655</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y34" t="n">
-        <v>1101.840554349397</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>1289.667857496978</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1289.667857496978</v>
+      </c>
+      <c r="D35" t="n">
+        <v>866.3752366819779</v>
+      </c>
+      <c r="E35" t="n">
+        <v>866.3752366819779</v>
+      </c>
+      <c r="F35" t="n">
+        <v>441.2510548713781</v>
+      </c>
+      <c r="G35" t="n">
+        <v>36.91199246082673</v>
+      </c>
+      <c r="H35" t="n">
+        <v>36.91199246082673</v>
+      </c>
+      <c r="I35" t="n">
+        <v>36.91199246082673</v>
+      </c>
+      <c r="J35" t="n">
+        <v>36.91199246082673</v>
+      </c>
+      <c r="K35" t="n">
+        <v>36.91199246082673</v>
+      </c>
+      <c r="L35" t="n">
+        <v>493.6978991635576</v>
+      </c>
+      <c r="M35" t="n">
+        <v>950.4838058662883</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1388.813716338606</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1388.813716338606</v>
+      </c>
+      <c r="P35" t="n">
         <v>1845.599623041337</v>
       </c>
-      <c r="C35" t="n">
+      <c r="Q35" t="n">
         <v>1845.599623041337</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1422.307002226337</v>
-      </c>
-      <c r="E35" t="n">
-        <v>996.3300623741947</v>
-      </c>
-      <c r="F35" t="n">
-        <v>571.2058805635949</v>
-      </c>
-      <c r="G35" t="n">
-        <v>166.8668181530435</v>
-      </c>
-      <c r="H35" t="n">
-        <v>36.91199246082674</v>
-      </c>
-      <c r="I35" t="n">
-        <v>36.91199246082674</v>
-      </c>
-      <c r="J35" t="n">
-        <v>399.5154512777223</v>
-      </c>
-      <c r="K35" t="n">
-        <v>399.5154512777223</v>
-      </c>
-      <c r="L35" t="n">
-        <v>856.3013579804531</v>
-      </c>
-      <c r="M35" t="n">
-        <v>856.3013579804531</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1271.957808655251</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1271.957808655251</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1271.957808655251</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1728.043288159434</v>
       </c>
       <c r="R35" t="n">
         <v>1845.599623041337</v>
@@ -6971,16 +6973,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V35" t="n">
-        <v>1845.599623041337</v>
+        <v>1686.059207196631</v>
       </c>
       <c r="W35" t="n">
-        <v>1845.599623041337</v>
+        <v>1289.667857496978</v>
       </c>
       <c r="X35" t="n">
-        <v>1845.599623041337</v>
+        <v>1289.667857496978</v>
       </c>
       <c r="Y35" t="n">
-        <v>1845.599623041337</v>
+        <v>1289.667857496978</v>
       </c>
     </row>
     <row r="36">
@@ -6996,40 +6998,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E36" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F36" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J36" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K36" t="n">
-        <v>475.2419029331441</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L36" t="n">
-        <v>475.2419029331441</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M36" t="n">
-        <v>475.2419029331441</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N36" t="n">
-        <v>932.027809635875</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O36" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P36" t="n">
         <v>1845.599623041337</v>
@@ -7069,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.91199246082674</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C37" t="n">
-        <v>36.91199246082674</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D37" t="n">
-        <v>36.91199246082674</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E37" t="n">
-        <v>36.91199246082674</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F37" t="n">
-        <v>36.91199246082674</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G37" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J37" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K37" t="n">
-        <v>320.9309218908219</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L37" t="n">
-        <v>675.6202431852428</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.806038155494</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N37" t="n">
-        <v>1444.297549031529</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O37" t="n">
-        <v>1799.725677711293</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P37" t="n">
-        <v>1799.725677711293</v>
+        <v>1806.305960203198</v>
       </c>
       <c r="Q37" t="n">
         <v>1845.599623041337</v>
@@ -7120,25 +7122,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S37" t="n">
-        <v>1776.072293530599</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T37" t="n">
-        <v>1532.732945756499</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U37" t="n">
-        <v>1252.548497256803</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V37" t="n">
-        <v>970.8370298648322</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W37" t="n">
-        <v>695.9846260373453</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X37" t="n">
-        <v>453.4207294831504</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y37" t="n">
-        <v>227.0779611728924</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>987.3515643410735</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="C38" t="n">
-        <v>560.4508343543737</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="D38" t="n">
         <v>462.8889323129692</v>
       </c>
       <c r="E38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J38" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L38" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M38" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N38" t="n">
-        <v>1389.514143537154</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O38" t="n">
-        <v>1389.514143537154</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P38" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q38" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R38" t="n">
         <v>1845.599623041337</v>
@@ -7202,22 +7204,22 @@
         <v>1741.232328914477</v>
       </c>
       <c r="T38" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U38" t="n">
-        <v>1741.232328914477</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V38" t="n">
-        <v>1383.742914040727</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W38" t="n">
-        <v>987.3515643410735</v>
+        <v>508.0710839821188</v>
       </c>
       <c r="X38" t="n">
-        <v>987.3515643410735</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="Y38" t="n">
-        <v>987.3515643410735</v>
+        <v>462.8889323129692</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C39" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H39" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I39" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J39" t="n">
-        <v>36.9119924608267</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K39" t="n">
-        <v>36.9119924608267</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L39" t="n">
-        <v>493.6978991635576</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M39" t="n">
-        <v>950.4838058662884</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="N39" t="n">
-        <v>1407.269712569019</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O39" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P39" t="n">
         <v>1845.599623041337</v>
@@ -7281,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7290,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>856.3058865556181</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="C40" t="n">
-        <v>684.3333234345341</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="D40" t="n">
-        <v>521.0165505613048</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="E40" t="n">
-        <v>354.8083447141584</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F40" t="n">
-        <v>354.8083447141584</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G40" t="n">
         <v>280.4768292123964</v>
@@ -7327,28 +7329,28 @@
         <v>136.6805607205508</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K40" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L40" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M40" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N40" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O40" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P40" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
@@ -7360,22 +7362,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T40" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U40" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V40" t="n">
-        <v>1563.888155649366</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W40" t="n">
-        <v>1289.035751821879</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="X40" t="n">
-        <v>1046.471855267684</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="Y40" t="n">
-        <v>1046.471855267684</v>
+        <v>618.5955731436038</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>460.2046132758265</v>
+        <v>251.2045749986936</v>
       </c>
       <c r="C41" t="n">
-        <v>460.2046132758265</v>
+        <v>251.2045749986936</v>
       </c>
       <c r="D41" t="n">
-        <v>36.91199246082674</v>
+        <v>251.2045749986936</v>
       </c>
       <c r="E41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J41" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K41" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L41" t="n">
-        <v>399.5154512777223</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M41" t="n">
-        <v>856.3013579804531</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="N41" t="n">
-        <v>1271.257381456703</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O41" t="n">
         <v>1728.043288159434</v>
@@ -7445,16 +7447,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V41" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W41" t="n">
-        <v>1697.110246444719</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="X41" t="n">
-        <v>1285.390247612466</v>
+        <v>1076.390209335333</v>
       </c>
       <c r="Y41" t="n">
-        <v>880.0529775673565</v>
+        <v>671.0529392902237</v>
       </c>
     </row>
     <row r="42">
@@ -7470,46 +7472,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D42" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E42" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F42" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I42" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J42" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K42" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="L42" t="n">
-        <v>393.2225928484409</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="M42" t="n">
-        <v>850.0084995511718</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="N42" t="n">
-        <v>1306.794406253903</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="O42" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P42" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q42" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R42" t="n">
         <v>1845.599623041337</v>
@@ -7518,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7564,25 +7566,25 @@
         <v>136.6805607205508</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J43" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K43" t="n">
-        <v>320.9309218908219</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L43" t="n">
-        <v>675.6202431852428</v>
+        <v>303.8948463526237</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.806038155494</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N43" t="n">
-        <v>1428.000280878674</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O43" t="n">
-        <v>1428.000280878674</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P43" t="n">
         <v>1718.599492800575</v>
@@ -7591,28 +7593,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R43" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S43" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T43" t="n">
-        <v>1845.599623041337</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U43" t="n">
-        <v>1845.599623041337</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V43" t="n">
-        <v>1845.599623041337</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="W43" t="n">
-        <v>1570.74721921385</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="X43" t="n">
-        <v>1328.183322659655</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="Y43" t="n">
-        <v>1310.259083697129</v>
+        <v>1275.037213454714</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>508.0710839821188</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>369.6772422433207</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>296.6052906836297</v>
       </c>
     </row>
   </sheetData>
@@ -9404,16 +9406,16 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>362.3257551502136</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
         <v>37.5753618102313</v>
@@ -9422,7 +9424,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>99.71676862514317</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9559,25 +9561,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L22" t="n">
-        <v>356.3172089945508</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M22" t="n">
-        <v>417.7126065281028</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P22" t="n">
         <v>22.38080065798648</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>454.9120992556681</v>
+        <v>359.7783135124</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O23" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9720,22 +9722,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>382.424784075456</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N24" t="n">
-        <v>482.7429339738759</v>
+        <v>373.7308639970796</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q24" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9796,13 +9798,13 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>228.5874162576999</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>497.1645065551435</v>
@@ -9884,19 +9886,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>480.0371081600193</v>
       </c>
       <c r="O26" t="n">
-        <v>456.538457816883</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P26" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M27" t="n">
-        <v>101.0427079326424</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N27" t="n">
-        <v>482.7429339738759</v>
+        <v>189.6586051758914</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9975,7 +9977,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
@@ -10042,7 +10044,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10051,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,28 +10114,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764234</v>
       </c>
       <c r="L29" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>114.4784903637085</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
@@ -10197,16 +10199,16 @@
         <v>483.9149924745637</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N30" t="n">
-        <v>106.8108172115448</v>
+        <v>99.2889556338564</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10267,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>233.526361580185</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10288,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M32" t="n">
-        <v>456.5787613602906</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N32" t="n">
-        <v>498.6795285947802</v>
+        <v>361.2933355520367</v>
       </c>
       <c r="O32" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10422,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385623</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P33" t="n">
-        <v>464.5283265304018</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10525,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N35" t="n">
-        <v>457.1346235160603</v>
+        <v>480.0371081600193</v>
       </c>
       <c r="O35" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,25 +10664,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>190.7148107956831</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N36" t="n">
-        <v>482.7429339738759</v>
+        <v>464.100513539115</v>
       </c>
       <c r="O36" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P36" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10741,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10759,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.95688127998122</v>
+        <v>64.31013128815719</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>480.7446103807745</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376382</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,25 +10901,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>482.7429339738759</v>
+        <v>189.6586051758916</v>
       </c>
       <c r="O39" t="n">
-        <v>465.9293750477955</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -10981,13 +10983,13 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>100.3044564185466</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
@@ -10999,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,19 +11062,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M41" t="n">
-        <v>498.831168659766</v>
+        <v>456.5787613602905</v>
       </c>
       <c r="N41" t="n">
-        <v>456.4271212953049</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11142,25 +11144,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>382.424784075456</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M42" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>458.4075134701067</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q42" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>62.78265149768077</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>385.5915703929544</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
@@ -11309,16 +11311,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376382</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11385,19 +11387,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385623</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>20.74890097560039</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>68.71811917318252</v>
       </c>
       <c r="Q46" t="n">
         <v>24.61956276478495</v>
@@ -23975,16 +23977,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>59.88855313227131</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="22">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>206.3343440542548</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24206,19 +24208,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>246.910913738383</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>272.6286199093641</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
@@ -24266,7 +24268,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>146.1698679701245</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>206.334344054255</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>275.6272398561813</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -24458,7 +24460,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24503,13 +24505,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>128.234795544079</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>135.3299468168686</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>213.8925136908006</v>
       </c>
     </row>
     <row r="29">
@@ -24686,16 +24688,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>135.3673251155519</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -24743,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>329.9825517371921</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.76266095239474</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.14881299955795</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -24965,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>123.7228803366963</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>82.1346190747073</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25135,7 +25137,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25160,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>166.234417305411</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25211,10 +25213,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>195.9695090387542</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,19 +25362,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>99.60164079042598</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>206.334344054255</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25391,10 +25393,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>322.4734115858593</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25442,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>362.8724686914721</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>91.00619966196587</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25600,10 +25602,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>94.69103900821892</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -25631,10 +25633,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>209.5675137411328</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -25685,10 +25687,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>245.4229533720049</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>34.869651539991</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>206.3343440542548</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25880,10 +25882,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>270.5928955225201</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>101.4207812742432</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26074,22 +26076,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>466613.8502382106</v>
+        <v>60870.09540019948</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>466613.8502382105</v>
+        <v>466613.8502382106</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>466613.8502382105</v>
+        <v>466613.8502382104</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>466613.8502382106</v>
+        <v>466613.8502382105</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>60870.09540019948</v>
+        <v>466613.8502382106</v>
       </c>
     </row>
   </sheetData>
@@ -26329,31 +26331,31 @@
         <v>11781.30878713538</v>
       </c>
       <c r="H2" t="n">
+        <v>11781.30878713538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>90209.6218243675</v>
+      </c>
+      <c r="J2" t="n">
         <v>90209.62182436747</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>90209.62182436744</v>
+      </c>
+      <c r="L2" t="n">
+        <v>90209.62182436742</v>
+      </c>
+      <c r="M2" t="n">
+        <v>90209.62182436744</v>
+      </c>
+      <c r="N2" t="n">
         <v>90209.62182436745</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>90209.62182436744</v>
+      </c>
+      <c r="P2" t="n">
         <v>90209.62182436742</v>
-      </c>
-      <c r="K2" t="n">
-        <v>90209.6218243675</v>
-      </c>
-      <c r="L2" t="n">
-        <v>90209.62182436745</v>
-      </c>
-      <c r="M2" t="n">
-        <v>90209.62182436748</v>
-      </c>
-      <c r="N2" t="n">
-        <v>90209.62182436751</v>
-      </c>
-      <c r="O2" t="n">
-        <v>90209.62182436745</v>
-      </c>
-      <c r="P2" t="n">
-        <v>11781.30878713538</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>124489.84717329</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>122695.9243396938</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26433,7 +26435,7 @@
         <v>3927.102929045127</v>
       </c>
       <c r="H4" t="n">
-        <v>31000.78171447197</v>
+        <v>3927.102929045127</v>
       </c>
       <c r="I4" t="n">
         <v>31000.78171447197</v>
@@ -26448,7 +26450,7 @@
         <v>31000.78171447197</v>
       </c>
       <c r="M4" t="n">
-        <v>31000.78171447198</v>
+        <v>31000.78171447197</v>
       </c>
       <c r="N4" t="n">
         <v>31000.78171447197</v>
@@ -26457,7 +26459,7 @@
         <v>31000.78171447197</v>
       </c>
       <c r="P4" t="n">
-        <v>3927.102929045127</v>
+        <v>31000.78171447197</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>28053.11427022832</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>28053.11427022831</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25773.39414190974</v>
+        <v>-25773.39414190975</v>
       </c>
       <c r="C6" t="n">
         <v>-25773.39414190975</v>
@@ -26537,31 +26539,31 @@
         <v>7854.205858090252</v>
       </c>
       <c r="H6" t="n">
-        <v>-93334.12133362284</v>
+        <v>7854.205858090254</v>
       </c>
       <c r="I6" t="n">
-        <v>31155.72583966716</v>
+        <v>-91540.1985000266</v>
       </c>
       <c r="J6" t="n">
-        <v>31155.72583966713</v>
+        <v>31155.72583966718</v>
       </c>
       <c r="K6" t="n">
-        <v>31155.7258396672</v>
+        <v>31155.72583966715</v>
       </c>
       <c r="L6" t="n">
-        <v>31155.72583966716</v>
+        <v>31155.72583966714</v>
       </c>
       <c r="M6" t="n">
-        <v>31155.72583966719</v>
+        <v>31155.72583966715</v>
       </c>
       <c r="N6" t="n">
-        <v>31155.72583966722</v>
+        <v>31155.72583966717</v>
       </c>
       <c r="O6" t="n">
-        <v>31155.72583966716</v>
+        <v>31155.72583966715</v>
       </c>
       <c r="P6" t="n">
-        <v>7854.205858090254</v>
+        <v>31155.72583966714</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36124,16 +36126,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>77.9459274203145</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>334.3984490988496</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>395.137166636617</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>381.3045564404402</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>419.1474984608587</v>
+        <v>324.0137127175906</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O23" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>359.9096973612264</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N24" t="n">
-        <v>461.3999057603342</v>
+        <v>352.3878357835379</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q24" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36516,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L25" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>206.0119763662141</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
         <v>381.3045564404402</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36604,19 +36606,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="O26" t="n">
-        <v>419.1474984608589</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P26" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M27" t="n">
-        <v>77.94592742031439</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N27" t="n">
-        <v>461.3999057603342</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L28" t="n">
         <v>358.2720417115361</v>
@@ -36762,7 +36764,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
         <v>359.0183117977405</v>
@@ -36771,7 +36773,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="L29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>77.19886752926243</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N30" t="n">
-        <v>85.46778899800312</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K31" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>358.2720417115361</v>
+        <v>211.6076016844838</v>
       </c>
       <c r="M31" t="n">
         <v>395.137166636617</v>
@@ -37008,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M32" t="n">
-        <v>419.1474984608587</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N32" t="n">
-        <v>461.3999057603342</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>77.94592742031456</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P33" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M34" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N34" t="n">
         <v>381.3045564404402</v>
@@ -37245,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N35" t="n">
-        <v>419.8550006816143</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>168.3155769623498</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N36" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="O36" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37479,10 +37481,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.33731851519627</v>
+        <v>39.69056852337224</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>461.3999057603342</v>
+        <v>168.3155769623499</v>
       </c>
       <c r="O39" t="n">
-        <v>442.7574853255733</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
-        <v>77.72901652706079</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
         <v>381.3045564404402</v>
@@ -37719,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M41" t="n">
-        <v>461.3999057603342</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="N41" t="n">
-        <v>419.1474984608589</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>359.9096973612264</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>435.2356237478845</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>40.86389160197955</v>
       </c>
       <c r="M43" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N43" t="n">
-        <v>364.842669417354</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
         <v>293.5345574968697</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>77.94592742031456</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>46.33731851519604</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19067.45366245045</v>
+        <v>-28460.64600054052</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24728256.75116414</v>
+        <v>24728256.75116413</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2862805.264421657</v>
+        <v>2862805.264421656</v>
       </c>
     </row>
     <row r="11">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>106.3192265349075</v>
       </c>
       <c r="C23" t="n">
-        <v>175.7208089484498</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>39.25515466184233</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2493,10 +2493,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>65.7695357349571</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2575,7 +2575,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>106.8056168372341</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>273.0491018005796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H27" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>75.25985126404235</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.18682693635475</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>286.3498453380691</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>291.718902645009</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H30" t="n">
-        <v>52.84233230531348</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>122.10601639792</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>95.92094419210225</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>244.6771405667886</v>
       </c>
       <c r="X32" t="n">
-        <v>325.4681797692229</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H33" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3204,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>271.1466273392977</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>164.5404183120838</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>177.7187212993078</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>157.9450116862588</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>120.9761894820706</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3444,7 +3444,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>65.7695357349571</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>141.3535193811976</v>
       </c>
       <c r="X38" t="n">
-        <v>44.73033015245812</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>145.2628475222653</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>145.447218580434</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>212.1496567124882</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>244.6771405667886</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.394657484954</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3912,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>223.4973014423011</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>137.0099033214101</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>273.0491018005798</v>
       </c>
     </row>
     <row r="45">
@@ -4137,22 +4137,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>68.83205621562998</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>87.06923753841166</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1043.871003296574</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C23" t="n">
-        <v>866.3752366819779</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D23" t="n">
-        <v>866.3752366819779</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E23" t="n">
-        <v>866.3752366819779</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F23" t="n">
-        <v>441.2510548713781</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G23" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H23" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I23" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J23" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K23" t="n">
-        <v>357.6855680512415</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L23" t="n">
-        <v>814.4714747539723</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M23" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N23" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O23" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P23" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q23" t="n">
         <v>1728.043288159434</v>
@@ -6028,13 +6028,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W23" t="n">
-        <v>1449.208273341683</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X23" t="n">
-        <v>1449.208273341683</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y23" t="n">
-        <v>1043.871003296574</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C24" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D24" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E24" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F24" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H24" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I24" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J24" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K24" t="n">
-        <v>44.35863542273857</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L24" t="n">
-        <v>44.35863542273857</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1445421254694</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N24" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O24" t="n">
+        <v>850.0084995511718</v>
+      </c>
+      <c r="P24" t="n">
         <v>1306.794406253903</v>
       </c>
-      <c r="P24" t="n">
-        <v>1763.580312956633</v>
-      </c>
       <c r="Q24" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R24" t="n">
         <v>1845.599623041337</v>
@@ -6098,7 +6098,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U24" t="n">
         <v>1437.627243819906</v>
@@ -6107,13 +6107,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X24" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y24" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="25">
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1120.093114985063</v>
+        <v>876.528278233494</v>
       </c>
       <c r="C25" t="n">
-        <v>948.1205518639796</v>
+        <v>704.55571511241</v>
       </c>
       <c r="D25" t="n">
-        <v>784.8037789907503</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E25" t="n">
-        <v>618.5955731436038</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F25" t="n">
-        <v>446.7337989181643</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G25" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H25" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I25" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J25" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K25" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L25" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M25" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N25" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O25" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P25" t="n">
         <v>1845.599623041337</v>
@@ -6171,28 +6171,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R25" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S25" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T25" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U25" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V25" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="W25" t="n">
-        <v>1779.165748561582</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="X25" t="n">
-        <v>1536.601852007387</v>
+        <v>1142.52271791935</v>
       </c>
       <c r="Y25" t="n">
-        <v>1310.259083697129</v>
+        <v>916.1799496090923</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>761.6811009734918</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="C26" t="n">
-        <v>334.7803709867919</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="D26" t="n">
-        <v>334.7803709867919</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="E26" t="n">
-        <v>334.7803709867919</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F26" t="n">
-        <v>334.7803709867919</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G26" t="n">
-        <v>334.7803709867919</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H26" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J26" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K26" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L26" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M26" t="n">
-        <v>493.6978991635576</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N26" t="n">
-        <v>932.0278096358751</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="O26" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P26" t="n">
         <v>1845.599623041337</v>
@@ -6253,25 +6253,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T26" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U26" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V26" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W26" t="n">
-        <v>1449.208273341683</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="X26" t="n">
-        <v>1037.488274509431</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="Y26" t="n">
-        <v>761.6811009734918</v>
+        <v>796.5779722300206</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C27" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250717</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E27" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I27" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J27" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K27" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L27" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.18129514588</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N27" t="n">
-        <v>1388.813716338606</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="O27" t="n">
-        <v>1388.813716338606</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="P27" t="n">
-        <v>1388.813716338606</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="Q27" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6335,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6344,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.093114985063</v>
+        <v>451.1615770695395</v>
       </c>
       <c r="C28" t="n">
-        <v>948.1205518639796</v>
+        <v>279.1890139484556</v>
       </c>
       <c r="D28" t="n">
-        <v>784.8037789907503</v>
+        <v>279.1890139484556</v>
       </c>
       <c r="E28" t="n">
-        <v>618.5955731436038</v>
+        <v>279.1890139484556</v>
       </c>
       <c r="F28" t="n">
-        <v>446.7337989181643</v>
+        <v>279.1890139484556</v>
       </c>
       <c r="G28" t="n">
-        <v>280.4768292123964</v>
+        <v>112.9320442426877</v>
       </c>
       <c r="H28" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K28" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L28" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M28" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N28" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O28" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P28" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q28" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R28" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S28" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T28" t="n">
-        <v>1602.260275267236</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U28" t="n">
-        <v>1602.260275267236</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V28" t="n">
-        <v>1320.548807875265</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="W28" t="n">
-        <v>1320.548807875265</v>
+        <v>1110.234210646058</v>
       </c>
       <c r="X28" t="n">
-        <v>1320.548807875265</v>
+        <v>867.6703140918631</v>
       </c>
       <c r="Y28" t="n">
-        <v>1310.259083697129</v>
+        <v>641.3275457816052</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>624.0226390050436</v>
+        <v>868.151784858078</v>
       </c>
       <c r="C29" t="n">
-        <v>624.0226390050436</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="D29" t="n">
-        <v>624.0226390050436</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="E29" t="n">
-        <v>334.7803709867919</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F29" t="n">
-        <v>334.7803709867919</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G29" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J29" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K29" t="n">
-        <v>815.1719019525202</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L29" t="n">
-        <v>815.1719019525202</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M29" t="n">
-        <v>815.1719019525202</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N29" t="n">
-        <v>815.1719019525202</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O29" t="n">
-        <v>815.1719019525202</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P29" t="n">
         <v>1271.957808655251</v>
@@ -6490,25 +6490,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S29" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T29" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U29" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V29" t="n">
-        <v>1845.599623041337</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="W29" t="n">
-        <v>1449.208273341683</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="X29" t="n">
-        <v>1449.208273341683</v>
+        <v>868.151784858078</v>
       </c>
       <c r="Y29" t="n">
-        <v>1043.871003296574</v>
+        <v>868.151784858078</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C30" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E30" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F30" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I30" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J30" t="n">
-        <v>316.0561247023297</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="K30" t="n">
-        <v>772.8420314050604</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="L30" t="n">
-        <v>1229.627938107791</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="M30" t="n">
-        <v>1686.413844810522</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="N30" t="n">
-        <v>1763.580312956633</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="O30" t="n">
-        <v>1763.580312956633</v>
+        <v>932.027809635875</v>
       </c>
       <c r="P30" t="n">
-        <v>1763.580312956633</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q30" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6572,7 +6572,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U30" t="n">
         <v>1437.627243819906</v>
@@ -6581,13 +6581,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W30" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X30" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y30" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="31">
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>305.7743982001958</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="C31" t="n">
-        <v>133.8018350791118</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="D31" t="n">
-        <v>36.91199246082673</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="E31" t="n">
-        <v>36.91199246082673</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="F31" t="n">
-        <v>36.91199246082673</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="G31" t="n">
-        <v>36.91199246082673</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H31" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J31" t="n">
         <v>94.40332068498475</v>
       </c>
       <c r="K31" t="n">
-        <v>94.40332068498475</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L31" t="n">
-        <v>303.8948463526237</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M31" t="n">
-        <v>695.0806413228745</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N31" t="n">
-        <v>1072.57215219891</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O31" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P31" t="n">
         <v>1718.599492800575</v>
@@ -6648,25 +6648,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.425962247645</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T31" t="n">
-        <v>1385.086614473545</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U31" t="n">
-        <v>1104.902165973849</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1906985818778</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="W31" t="n">
-        <v>548.3382947543907</v>
+        <v>718.4733422352563</v>
       </c>
       <c r="X31" t="n">
-        <v>305.7743982001958</v>
+        <v>475.9094456810614</v>
       </c>
       <c r="Y31" t="n">
-        <v>305.7743982001958</v>
+        <v>475.9094456810614</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>36.91199246082673</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="C32" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D32" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E32" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F32" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K32" t="n">
+        <v>36.91199246082674</v>
+      </c>
+      <c r="L32" t="n">
         <v>493.6978991635576</v>
       </c>
-      <c r="L32" t="n">
-        <v>950.4838058662883</v>
-      </c>
       <c r="M32" t="n">
-        <v>1407.269712569019</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N32" t="n">
-        <v>1728.043288159434</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="O32" t="n">
-        <v>1728.043288159434</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P32" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q32" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R32" t="n">
         <v>1845.599623041337</v>
@@ -6730,22 +6730,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T32" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U32" t="n">
-        <v>1587.244713637749</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V32" t="n">
-        <v>1587.244713637749</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W32" t="n">
-        <v>1190.853363938096</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="X32" t="n">
-        <v>862.0976267974665</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="Y32" t="n">
-        <v>456.7603567523568</v>
+        <v>761.6811009734918</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C33" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D33" t="n">
-        <v>382.6896215250717</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I33" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J33" t="n">
         <v>316.0561247023297</v>
@@ -6791,16 +6791,16 @@
         <v>316.0561247023297</v>
       </c>
       <c r="N33" t="n">
-        <v>393.2225928484411</v>
+        <v>393.2225928484409</v>
       </c>
       <c r="O33" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P33" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q33" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6809,7 +6809,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U33" t="n">
         <v>1437.627243819906</v>
@@ -6818,13 +6818,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W33" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1020.32454672534</v>
+        <v>876.528278233494</v>
       </c>
       <c r="C34" t="n">
-        <v>848.3519836042556</v>
+        <v>704.55571511241</v>
       </c>
       <c r="D34" t="n">
-        <v>685.0352107310263</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E34" t="n">
-        <v>518.8270048838798</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F34" t="n">
-        <v>346.9652306584402</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G34" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K34" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L34" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M34" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N34" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O34" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P34" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q34" t="n">
         <v>1845.599623041337</v>
@@ -6885,25 +6885,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S34" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T34" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U34" t="n">
-        <v>1845.599623041337</v>
+        <v>1158.239745625465</v>
       </c>
       <c r="V34" t="n">
-        <v>1845.599623041337</v>
+        <v>876.528278233494</v>
       </c>
       <c r="W34" t="n">
-        <v>1679.397180301858</v>
+        <v>876.528278233494</v>
       </c>
       <c r="X34" t="n">
-        <v>1436.833283747663</v>
+        <v>876.528278233494</v>
       </c>
       <c r="Y34" t="n">
-        <v>1210.490515437405</v>
+        <v>876.528278233494</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1289.667857496978</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="C35" t="n">
-        <v>1289.667857496978</v>
+        <v>939.4184126956825</v>
       </c>
       <c r="D35" t="n">
-        <v>866.3752366819779</v>
+        <v>759.9045527973917</v>
       </c>
       <c r="E35" t="n">
-        <v>866.3752366819779</v>
+        <v>759.9045527973917</v>
       </c>
       <c r="F35" t="n">
-        <v>441.2510548713781</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G35" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J35" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
-        <v>36.91199246082673</v>
+        <v>475.942330131692</v>
       </c>
       <c r="L35" t="n">
-        <v>493.6978991635576</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="M35" t="n">
-        <v>950.4838058662883</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="N35" t="n">
-        <v>1388.813716338606</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="O35" t="n">
-        <v>1388.813716338606</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P35" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q35" t="n">
         <v>1845.599623041337</v>
@@ -6967,22 +6967,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T35" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U35" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V35" t="n">
-        <v>1686.059207196631</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="W35" t="n">
-        <v>1289.667857496978</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="X35" t="n">
-        <v>1289.667857496978</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="Y35" t="n">
-        <v>1289.667857496978</v>
+        <v>1366.319142682382</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C36" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E36" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F36" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I36" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J36" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K36" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L36" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M36" t="n">
-        <v>950.4838058662883</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N36" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O36" t="n">
-        <v>1845.599623041337</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P36" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q36" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7046,7 +7046,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U36" t="n">
         <v>1437.627243819906</v>
@@ -7055,13 +7055,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W36" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X36" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y36" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.093114985063</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C37" t="n">
-        <v>948.1205518639796</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D37" t="n">
-        <v>784.8037789907503</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E37" t="n">
-        <v>618.5955731436038</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F37" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G37" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H37" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K37" t="n">
-        <v>36.91199246082673</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L37" t="n">
-        <v>391.6013137552475</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M37" t="n">
-        <v>782.7871087254983</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N37" t="n">
-        <v>1160.278619601534</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O37" t="n">
-        <v>1515.706748281297</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P37" t="n">
-        <v>1806.305960203198</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q37" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R37" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S37" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T37" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U37" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V37" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="W37" t="n">
-        <v>1779.165748561582</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="X37" t="n">
-        <v>1536.601852007387</v>
+        <v>1142.52271791935</v>
       </c>
       <c r="Y37" t="n">
-        <v>1310.259083697129</v>
+        <v>1142.52271791935</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>462.8889323129692</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="C38" t="n">
-        <v>462.8889323129692</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D38" t="n">
-        <v>462.8889323129692</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E38" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F38" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J38" t="n">
         <v>399.5154512777223</v>
@@ -7189,7 +7189,7 @@
         <v>399.5154512777223</v>
       </c>
       <c r="O38" t="n">
-        <v>815.1719019525202</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P38" t="n">
         <v>1271.957808655251</v>
@@ -7207,19 +7207,19 @@
         <v>1520.30675795911</v>
       </c>
       <c r="U38" t="n">
-        <v>1261.951848555522</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V38" t="n">
-        <v>904.4624336817719</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W38" t="n">
-        <v>508.0710839821188</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="X38" t="n">
-        <v>462.8889323129692</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="Y38" t="n">
-        <v>462.8889323129692</v>
+        <v>761.6811009734918</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C39" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I39" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J39" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K39" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L39" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M39" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N39" t="n">
-        <v>932.0278096358751</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O39" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P39" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q39" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7283,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7292,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>618.5955731436038</v>
+        <v>857.0014575401153</v>
       </c>
       <c r="C40" t="n">
-        <v>618.5955731436038</v>
+        <v>685.0288944190313</v>
       </c>
       <c r="D40" t="n">
-        <v>618.5955731436038</v>
+        <v>521.712121545802</v>
       </c>
       <c r="E40" t="n">
-        <v>618.5955731436038</v>
+        <v>355.5039156986555</v>
       </c>
       <c r="F40" t="n">
-        <v>446.7337989181643</v>
+        <v>183.642141473216</v>
       </c>
       <c r="G40" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H40" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K40" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L40" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M40" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N40" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O40" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P40" t="n">
         <v>1845.599623041337</v>
@@ -7356,28 +7356,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R40" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S40" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T40" t="n">
-        <v>1602.260275267236</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U40" t="n">
-        <v>1322.075826767541</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="V40" t="n">
-        <v>1040.36435937557</v>
+        <v>1273.510194562439</v>
       </c>
       <c r="W40" t="n">
-        <v>765.5119555480826</v>
+        <v>1273.510194562439</v>
       </c>
       <c r="X40" t="n">
-        <v>618.5955731436038</v>
+        <v>1273.510194562439</v>
       </c>
       <c r="Y40" t="n">
-        <v>618.5955731436038</v>
+        <v>1047.167426252181</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>251.2045749986936</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="C41" t="n">
-        <v>251.2045749986936</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2045749986936</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E41" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J41" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K41" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L41" t="n">
-        <v>1313.087264683184</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M41" t="n">
-        <v>1728.043288159434</v>
+        <v>475.942330131692</v>
       </c>
       <c r="N41" t="n">
-        <v>1728.043288159434</v>
+        <v>475.942330131692</v>
       </c>
       <c r="O41" t="n">
-        <v>1728.043288159434</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P41" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q41" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R41" t="n">
         <v>1845.599623041337</v>
@@ -7441,22 +7441,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T41" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U41" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V41" t="n">
-        <v>1488.110208167586</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W41" t="n">
-        <v>1488.110208167586</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="X41" t="n">
-        <v>1076.390209335333</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="Y41" t="n">
-        <v>671.0529392902237</v>
+        <v>761.6811009734918</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C42" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D42" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F42" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I42" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J42" t="n">
-        <v>44.35863542273857</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K42" t="n">
-        <v>44.35863542273857</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L42" t="n">
-        <v>501.1445421254694</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1445421254694</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N42" t="n">
-        <v>957.9304488282003</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O42" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P42" t="n">
         <v>1845.599623041337</v>
@@ -7520,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7529,13 +7529,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X42" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.093114985063</v>
+        <v>682.0950138984877</v>
       </c>
       <c r="C43" t="n">
-        <v>948.1205518639796</v>
+        <v>682.0950138984877</v>
       </c>
       <c r="D43" t="n">
-        <v>784.8037789907503</v>
+        <v>518.7782410252584</v>
       </c>
       <c r="E43" t="n">
-        <v>618.5955731436038</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="F43" t="n">
-        <v>446.7337989181643</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="G43" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H43" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K43" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L43" t="n">
-        <v>303.8948463526237</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M43" t="n">
-        <v>695.0806413228745</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N43" t="n">
-        <v>1072.57215219891</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O43" t="n">
-        <v>1428.000280878673</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P43" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q43" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R43" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S43" t="n">
-        <v>1798.56100972851</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T43" t="n">
-        <v>1555.22166195441</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.037213454714</v>
+        <v>1206.370377844654</v>
       </c>
       <c r="V43" t="n">
-        <v>1275.037213454714</v>
+        <v>924.6589104526826</v>
       </c>
       <c r="W43" t="n">
-        <v>1275.037213454714</v>
+        <v>924.6589104526826</v>
       </c>
       <c r="X43" t="n">
-        <v>1275.037213454714</v>
+        <v>682.0950138984877</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.037213454714</v>
+        <v>682.0950138984877</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>369.6772422433207</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="C44" t="n">
-        <v>369.6772422433207</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D44" t="n">
-        <v>369.6772422433207</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E44" t="n">
-        <v>369.6772422433207</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F44" t="n">
-        <v>369.6772422433207</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G44" t="n">
-        <v>369.6772422433207</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H44" t="n">
-        <v>71.80886371735552</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J44" t="n">
         <v>399.5154512777223</v>
@@ -7663,7 +7663,7 @@
         <v>399.5154512777223</v>
       </c>
       <c r="O44" t="n">
-        <v>815.1719019525202</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P44" t="n">
         <v>1271.957808655251</v>
@@ -7675,25 +7675,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T44" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U44" t="n">
-        <v>1261.951848555522</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V44" t="n">
-        <v>904.4624336817719</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W44" t="n">
-        <v>508.0710839821188</v>
+        <v>1449.208273341684</v>
       </c>
       <c r="X44" t="n">
-        <v>369.6772422433207</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y44" t="n">
-        <v>369.6772422433207</v>
+        <v>761.6811009734918</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C45" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H45" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I45" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J45" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K45" t="n">
-        <v>316.0561247023297</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L45" t="n">
-        <v>316.0561247023297</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M45" t="n">
-        <v>316.0561247023297</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N45" t="n">
-        <v>393.2225928484411</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O45" t="n">
-        <v>850.0084995511719</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P45" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q45" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R45" t="n">
         <v>1845.599623041337</v>
@@ -7757,7 +7757,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U45" t="n">
         <v>1437.627243819906</v>
@@ -7766,13 +7766,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>106.4393219715641</v>
+        <v>629.1876670254551</v>
       </c>
       <c r="C46" t="n">
-        <v>36.91199246082673</v>
+        <v>629.1876670254551</v>
       </c>
       <c r="D46" t="n">
-        <v>36.91199246082673</v>
+        <v>629.1876670254551</v>
       </c>
       <c r="E46" t="n">
-        <v>36.91199246082673</v>
+        <v>462.9794611783086</v>
       </c>
       <c r="F46" t="n">
-        <v>36.91199246082673</v>
+        <v>291.117686952869</v>
       </c>
       <c r="G46" t="n">
-        <v>36.91199246082673</v>
+        <v>124.8607172471011</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J46" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K46" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L46" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.806038155494</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N46" t="n">
-        <v>1444.297549031529</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O46" t="n">
-        <v>1799.725677711293</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P46" t="n">
         <v>1845.599623041337</v>
@@ -7836,22 +7836,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T46" t="n">
-        <v>1602.260275267236</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U46" t="n">
-        <v>1322.075826767541</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="V46" t="n">
-        <v>1040.36435937557</v>
+        <v>1320.548807875266</v>
       </c>
       <c r="W46" t="n">
-        <v>765.5119555480826</v>
+        <v>1045.696404047779</v>
       </c>
       <c r="X46" t="n">
-        <v>522.9480589938877</v>
+        <v>1045.696404047779</v>
       </c>
       <c r="Y46" t="n">
-        <v>296.6052906836297</v>
+        <v>819.3536357375208</v>
       </c>
     </row>
   </sheetData>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>359.7783135124</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L23" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9716,28 +9716,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>373.7308639970796</v>
+        <v>99.28895563385618</v>
       </c>
       <c r="O24" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9813,7 +9813,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q25" t="n">
         <v>24.61956276478495</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N26" t="n">
-        <v>480.0371081600193</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O26" t="n">
-        <v>498.7908651163582</v>
+        <v>113.8823246645311</v>
       </c>
       <c r="P26" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L27" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N27" t="n">
-        <v>189.6586051758914</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
@@ -10044,7 +10044,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>455.6196014764234</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L29" t="n">
         <v>38.31204243262292</v>
@@ -10129,7 +10129,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10190,31 +10190,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>99.2889556338564</v>
+        <v>456.5786519614261</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,16 +10272,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>233.526361580185</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
@@ -10351,28 +10351,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>499.7119481929571</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M32" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>361.2933355520367</v>
+        <v>480.7446103807745</v>
       </c>
       <c r="O32" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10439,13 +10439,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>99.28895563385623</v>
+        <v>99.28895563385606</v>
       </c>
       <c r="O33" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P33" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q33" t="n">
         <v>484.1469440493127</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10518,7 +10518,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>112.9634683240717</v>
       </c>
       <c r="L35" t="n">
-        <v>499.7119481929571</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M35" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N35" t="n">
-        <v>480.0371081600193</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L36" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>464.100513539115</v>
+        <v>99.28895563385618</v>
       </c>
       <c r="O36" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10755,7 +10755,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
@@ -10764,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.31013128815719</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>457.2459600376382</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P38" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>189.6586051758916</v>
+        <v>99.28895563385618</v>
       </c>
       <c r="O39" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P39" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10998,7 +10998,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q40" t="n">
         <v>24.61956276478495</v>
@@ -11062,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>456.5787613602905</v>
+        <v>114.6301304286942</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,25 +11138,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>183.8904958969891</v>
       </c>
       <c r="N42" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>458.4075134701067</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P42" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11220,10 +11220,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L43" t="n">
-        <v>62.78265149768077</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
@@ -11238,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>457.2459600376382</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P44" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11378,7 +11378,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,13 +11387,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>99.28895563385623</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q45" t="n">
         <v>484.1469440493127</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11472,7 +11472,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>68.71811917318252</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>24.61956276478495</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>309.3306541137072</v>
       </c>
       <c r="C23" t="n">
-        <v>246.910913738383</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
@@ -24268,13 +24268,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>149.0091543631027</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -24426,7 +24426,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>206.334344054255</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>285.6218193654225</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.234795544079</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>67.0984545428848</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.8925136908006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>135.3673251155519</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>115.8838961989212</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>66.15829262702502</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>65.76266095239474</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24934,7 +24934,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24970,22 +24970,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>147.750295635868</v>
       </c>
       <c r="X32" t="n">
-        <v>82.1346190747073</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25125,25 +25125,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>6.235976675401048</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>107.5634614771283</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.3409733075418</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25207,16 +25207,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>195.9695090387542</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>67.28811954287443</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -25374,13 +25374,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>206.334344054255</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25408,7 +25408,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>251.073916821459</v>
       </c>
       <c r="X38" t="n">
-        <v>362.8724686914721</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>19.33155248644485</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>94.69103900821892</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>209.5675137411328</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -25645,7 +25645,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25681,22 +25681,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>147.750295635868</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.869651539991</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>53.88530257239771</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -25867,7 +25867,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>270.5928955225201</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>128.2347955440787</v>
       </c>
     </row>
     <row r="45">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>101.4207812742432</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>55.28906826851549</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>466613.8502382106</v>
+        <v>466613.8502382105</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>466613.8502382104</v>
+        <v>466613.8502382105</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>466613.8502382105</v>
+        <v>466613.8502382106</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>466613.8502382105</v>
+        <v>466613.8502382106</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>466613.8502382106</v>
+        <v>466613.8502382105</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>466613.8502382106</v>
+        <v>466613.8502382104</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>466613.8502382105</v>
+        <v>466613.8502382106</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>466613.8502382106</v>
+        <v>466613.8502382105</v>
       </c>
     </row>
   </sheetData>
@@ -26334,28 +26334,28 @@
         <v>11781.30878713538</v>
       </c>
       <c r="I2" t="n">
-        <v>90209.6218243675</v>
+        <v>90209.62182436744</v>
       </c>
       <c r="J2" t="n">
         <v>90209.62182436747</v>
       </c>
       <c r="K2" t="n">
-        <v>90209.62182436744</v>
+        <v>90209.62182436745</v>
       </c>
       <c r="L2" t="n">
-        <v>90209.62182436742</v>
+        <v>90209.62182436745</v>
       </c>
       <c r="M2" t="n">
-        <v>90209.62182436744</v>
+        <v>90209.62182436745</v>
       </c>
       <c r="N2" t="n">
+        <v>90209.62182436747</v>
+      </c>
+      <c r="O2" t="n">
+        <v>90209.62182436748</v>
+      </c>
+      <c r="P2" t="n">
         <v>90209.62182436745</v>
-      </c>
-      <c r="O2" t="n">
-        <v>90209.62182436744</v>
-      </c>
-      <c r="P2" t="n">
-        <v>90209.62182436742</v>
       </c>
     </row>
     <row r="3">
@@ -26490,28 +26490,28 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="C6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="D6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="E6" t="n">
-        <v>7854.205858090254</v>
+        <v>6496.276761288475</v>
       </c>
       <c r="F6" t="n">
-        <v>7854.205858090254</v>
+        <v>6496.276761288475</v>
       </c>
       <c r="G6" t="n">
-        <v>7854.205858090252</v>
+        <v>6496.276761288473</v>
       </c>
       <c r="H6" t="n">
-        <v>7854.205858090254</v>
+        <v>6496.276761288475</v>
       </c>
       <c r="I6" t="n">
-        <v>-91540.1985000266</v>
+        <v>-92244.5583215182</v>
       </c>
       <c r="J6" t="n">
-        <v>31155.72583966718</v>
+        <v>30451.36601817566</v>
       </c>
       <c r="K6" t="n">
-        <v>31155.72583966715</v>
+        <v>30451.36601817565</v>
       </c>
       <c r="L6" t="n">
-        <v>31155.72583966714</v>
+        <v>30451.36601817565</v>
       </c>
       <c r="M6" t="n">
-        <v>31155.72583966715</v>
+        <v>30451.36601817565</v>
       </c>
       <c r="N6" t="n">
-        <v>31155.72583966717</v>
+        <v>30451.36601817566</v>
       </c>
       <c r="O6" t="n">
-        <v>31155.72583966715</v>
+        <v>30451.36601817568</v>
       </c>
       <c r="P6" t="n">
-        <v>31155.72583966714</v>
+        <v>30451.36601817565</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>324.0137127175906</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L23" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36436,28 +36436,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>352.3878357835379</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="O24" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
         <v>358.2720417115361</v>
@@ -36533,7 +36533,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N26" t="n">
-        <v>442.7574853255733</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O26" t="n">
-        <v>461.3999057603341</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="P26" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L27" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N27" t="n">
-        <v>168.3155769623498</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
         <v>358.2720417115361</v>
@@ -36764,7 +36764,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O28" t="n">
         <v>359.0183117977405</v>
@@ -36773,7 +36773,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>419.8550006816141</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -36910,31 +36910,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>77.94592742031473</v>
+        <v>435.2356237478844</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,16 +36992,16 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L31" t="n">
-        <v>211.6076016844838</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N31" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O31" t="n">
         <v>359.0183117977405</v>
@@ -37071,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M32" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>324.0137127175907</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>77.94592742031456</v>
+        <v>77.94592742031439</v>
       </c>
       <c r="O33" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P33" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q33" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
@@ -37238,7 +37238,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N34" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O34" t="n">
         <v>359.0183117977405</v>
@@ -37247,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>77.19886752926237</v>
       </c>
       <c r="L35" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M35" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N35" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L36" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>442.7574853255733</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="O36" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37475,7 +37475,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O37" t="n">
         <v>359.0183117977405</v>
@@ -37484,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.69056852337224</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>419.8550006816141</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P38" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>168.3155769623499</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="O39" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P39" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37718,7 +37718,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>419.1474984608586</v>
+        <v>77.19886752926237</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L42" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="N42" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>435.2356237478845</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P42" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L43" t="n">
-        <v>40.86389160197955</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M43" t="n">
         <v>395.137166636617</v>
@@ -37958,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>419.8550006816141</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P44" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38098,7 +38098,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>77.94592742031456</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q45" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
@@ -38192,7 +38192,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>46.33731851519604</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
